--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2107.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2107.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.884717628693822</v>
+        <v>4.270729541778564</v>
       </c>
       <c r="B1">
-        <v>2.307830741867386</v>
+        <v>2.643998622894287</v>
       </c>
       <c r="C1">
-        <v>2.018752506350642</v>
+        <v>1.869109988212585</v>
       </c>
       <c r="D1">
-        <v>2.185183497487069</v>
+        <v>1.701571106910706</v>
       </c>
       <c r="E1">
-        <v>2.664536779603151</v>
+        <v>1.733711242675781</v>
       </c>
     </row>
   </sheetData>
